--- a/ProfilsFiles/Ressources/Ref.xlsx
+++ b/ProfilsFiles/Ressources/Ref.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developpement\Github\Universal-XML-Scraper2\ProfilsFiles\Ressources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="420" windowWidth="24675" windowHeight="11805"/>
   </bookViews>
@@ -12,6 +17,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -258,6 +264,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -305,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,15 +561,15 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
